--- a/tableau_files/tableau_table_1.xlsx
+++ b/tableau_files/tableau_table_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="results-20221018-162115" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="results-20221206-105112" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -19,7 +19,7 @@
     <t>total_deaths</t>
   </si>
   <si>
-    <t>DeathPercentage</t>
+    <t>death_percentage</t>
   </si>
 </sst>
 </file>
